--- a/modelos/pilar_modelo.xlsx
+++ b/modelos/pilar_modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drives compartilhados\2024-1_Marcus_Nascimento_Pedro_Gomes\02 - Resultados\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wande\github\ingde-bridge\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D13F8-F572-421C-AA65-0BC3AF559670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EEC3E5-B140-4F7D-9441-9355FB35A94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Danos</t>
   </si>
@@ -113,13 +113,16 @@
   </si>
   <si>
     <t>Umidade na base</t>
+  </si>
+  <si>
+    <t>2 a 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +167,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -213,32 +210,32 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,496 +567,496 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="8.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="26.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2</v>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
         <v>2</v>
       </c>
     </row>
